--- a/StructureDefinition-ext-R5-MessageHeader.response.xlsx
+++ b/StructureDefinition-ext-R5-MessageHeader.response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,15 +455,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The kind of response to a message.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-response-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:details</t>
   </si>
   <si>
@@ -498,7 +489,7 @@
     <t>Extension.extension:details.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationOutcome|0.0.1-snapshot-3|OperationOutcome|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationOutcome|OperationOutcome)
 </t>
   </si>
   <si>
@@ -859,8 +850,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="29.0625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.2109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2303,13 +2294,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2347,13 +2338,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2378,16 +2369,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2456,7 +2447,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2559,7 +2550,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2664,7 +2655,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2707,7 +2698,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2769,7 +2760,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2795,16 +2786,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3005,13 +2996,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
